--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="User Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Menu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,4 +504,75 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dish name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fried Rice</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fried RiceFried Rice</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fried RiceFried Rice</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fried Rice</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,26 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fried RiceFried Rice</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fried Rice</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
